--- a/Codes/CITRINE_hardness_dataset_sorted.xlsx
+++ b/Codes/CITRINE_hardness_dataset_sorted.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boichot\Downloads\Minimal-neural-network-for-exploring-multi-principal-element-alloys-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boichot\Downloads\Minimal-neural-network-for-exploring-multi-principal-element-alloys-main\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="118">
   <si>
     <t>Al</t>
   </si>
@@ -1182,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3356,80 +3356,80 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H84" s="1">
-        <v>733</v>
+        <v>672</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H85" s="1">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H86" s="1">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3460,28 +3460,28 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H88" s="1">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3489,25 +3489,25 @@
         <v>11</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H89" s="1">
-        <v>654</v>
+        <v>509</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3515,25 +3515,25 @@
         <v>11</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H90" s="1">
-        <v>509</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3541,25 +3541,25 @@
         <v>11</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H91" s="1">
-        <v>113</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3567,25 +3567,25 @@
         <v>11</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H92" s="1">
-        <v>210</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3593,25 +3593,25 @@
         <v>11</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H93" s="1">
-        <v>125</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3619,7 +3619,7 @@
         <v>11</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>73</v>
@@ -3628,7 +3628,7 @@
         <v>73</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>72</v>
@@ -3637,7 +3637,7 @@
         <v>11</v>
       </c>
       <c r="H94" s="1">
-        <v>263</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3645,25 +3645,25 @@
         <v>11</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H95" s="1">
-        <v>335</v>
+      <c r="H95" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3671,16 +3671,16 @@
         <v>11</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>11</v>
@@ -3688,8 +3688,8 @@
       <c r="G96" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>102</v>
+      <c r="H96" s="1">
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3697,25 +3697,25 @@
         <v>11</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H97" s="1">
-        <v>223</v>
+      <c r="H97" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3726,22 +3726,22 @@
         <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3752,22 +3752,22 @@
         <v>11</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3778,22 +3778,22 @@
         <v>11</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3804,22 +3804,22 @@
         <v>11</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3827,25 +3827,25 @@
         <v>11</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>113</v>
+      <c r="H102" s="1">
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3853,50 +3853,24 @@
         <v>11</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="H103" s="1">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H104" s="1">
         <v>210</v>
       </c>
     </row>
